--- a/家装/家装实际表.xlsx
+++ b/家装/家装实际表.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="58">
   <si>
     <t>序号</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>淘宝 九牧 非定制</t>
+  </si>
+  <si>
+    <t>预计</t>
   </si>
 </sst>
 </file>
@@ -198,7 +201,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -327,7 +330,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -350,13 +353,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -388,9 +441,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -404,21 +454,36 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -765,599 +830,654 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C4:C24"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.44140625" style="4" customWidth="1"/>
     <col min="2" max="2" width="17.5546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" style="14" customWidth="1"/>
     <col min="4" max="4" width="21.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="19.95" customHeight="1">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-    </row>
-    <row r="2" spans="1:4" s="2" customFormat="1" ht="19.95" customHeight="1">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+    </row>
+    <row r="2" spans="1:5" s="2" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="19.95" customHeight="1">
-      <c r="A3" s="17" t="s">
+      <c r="E2" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:4" ht="19.95" customHeight="1">
+      <c r="B3" s="18"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="23"/>
+    </row>
+    <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="15">
+        <v>45000</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="24">
         <v>57500</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="19.95" customHeight="1">
+    </row>
+    <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="16">
-        <v>6000</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="15">
+        <v>7000</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="19.95" customHeight="1">
+      <c r="E5" s="24"/>
+    </row>
+    <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="13">
-        <v>10000</v>
-      </c>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" ht="19.95" customHeight="1">
+      <c r="C6" s="12">
+        <v>15000</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="15">
         <v>9500</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="21" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="19.95" customHeight="1">
-      <c r="A8" s="17" t="s">
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="7"/>
-    </row>
-    <row r="9" spans="1:4" ht="19.95" customHeight="1">
+      <c r="B8" s="18"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="24"/>
+    </row>
+    <row r="9" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>1</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="15">
         <v>8500</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="21" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="19.95" customHeight="1">
+      <c r="E9" s="24"/>
+    </row>
+    <row r="10" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>2</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="12">
         <v>1500</v>
       </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" ht="19.95" customHeight="1">
+      <c r="D10" s="21"/>
+      <c r="E10" s="24"/>
+    </row>
+    <row r="11" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="12">
         <v>5000</v>
       </c>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" ht="19.95" customHeight="1">
+      <c r="D11" s="21"/>
+      <c r="E11" s="24"/>
+    </row>
+    <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>4</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="13">
-        <v>2000</v>
-      </c>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" spans="1:4" ht="19.95" customHeight="1">
-      <c r="A13" s="17" t="s">
+      <c r="C12" s="12">
+        <v>1000</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="24"/>
+    </row>
+    <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" spans="1:4" ht="19.95" customHeight="1">
+      <c r="B13" s="18"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="24"/>
+    </row>
+    <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>1</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="15">
         <v>3500</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="21" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="19.95" customHeight="1">
+      <c r="E14" s="24"/>
+    </row>
+    <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>2</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="12">
         <v>1500</v>
       </c>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:4" ht="19.95" customHeight="1">
+      <c r="D15" s="21"/>
+      <c r="E15" s="24"/>
+    </row>
+    <row r="16" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>3</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="17">
         <v>4000</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="21" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="19.95" customHeight="1">
+      <c r="E16" s="24"/>
+    </row>
+    <row r="17" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>4</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="12">
         <v>2000</v>
       </c>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" ht="19.95" customHeight="1">
+      <c r="D17" s="21"/>
+      <c r="E17" s="24"/>
+    </row>
+    <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>5</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <v>1000</v>
       </c>
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:4" ht="19.95" customHeight="1">
-      <c r="A19" s="17" t="s">
+      <c r="D18" s="21"/>
+      <c r="E18" s="24"/>
+    </row>
+    <row r="19" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" spans="1:4" ht="19.95" customHeight="1">
+      <c r="B19" s="18"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="24"/>
+    </row>
+    <row r="20" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>1</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="15">
         <v>2600</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="21" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="19.95" customHeight="1">
+      <c r="E20" s="24"/>
+    </row>
+    <row r="21" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>2</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="12">
         <v>1500</v>
       </c>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="1:4" ht="19.95" customHeight="1">
+      <c r="D21" s="21"/>
+      <c r="E21" s="24"/>
+    </row>
+    <row r="22" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>3</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="12">
         <v>2000</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="21" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="19.95" customHeight="1">
+      <c r="E22" s="24"/>
+    </row>
+    <row r="23" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>4</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="12">
         <v>2000</v>
       </c>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:4" ht="19.95" customHeight="1">
+      <c r="D23" s="21"/>
+      <c r="E23" s="24"/>
+    </row>
+    <row r="24" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>5</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="12">
         <v>1000</v>
       </c>
-      <c r="D24" s="7"/>
-    </row>
-    <row r="25" spans="1:4" ht="19.95" customHeight="1">
-      <c r="A25" s="17" t="s">
+      <c r="D24" s="21"/>
+      <c r="E24" s="24"/>
+    </row>
+    <row r="25" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="7"/>
-    </row>
-    <row r="26" spans="1:4" ht="19.95" customHeight="1">
+      <c r="B25" s="18"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="24"/>
+    </row>
+    <row r="26" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>1</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="21">
+      <c r="C26" s="17">
+        <v>7000</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="24">
         <v>13000</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="19.95" customHeight="1">
+    </row>
+    <row r="27" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>2</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="17">
+        <v>5000</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="24">
         <v>4000</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="19.95" customHeight="1">
+    </row>
+    <row r="28" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>3</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="17">
+        <v>5000</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="24">
         <v>6000</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="19.95" customHeight="1">
+    </row>
+    <row r="29" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>4</v>
       </c>
       <c r="B29" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="12">
         <v>12000</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="21" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="19.95" customHeight="1">
+      <c r="E29" s="24"/>
+    </row>
+    <row r="30" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>5</v>
       </c>
       <c r="B30" s="7"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="7"/>
-    </row>
-    <row r="31" spans="1:4" ht="19.95" customHeight="1">
+      <c r="C30" s="12"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="24"/>
+    </row>
+    <row r="31" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>6</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="12">
         <v>4000</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="21" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="19.95" customHeight="1">
+      <c r="E31" s="24"/>
+    </row>
+    <row r="32" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>7</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C32" s="12">
         <v>4000</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="21" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="19.95" customHeight="1">
+      <c r="E32" s="24"/>
+    </row>
+    <row r="33" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>8</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="12">
         <v>3000</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="21" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="19.95" customHeight="1">
+      <c r="E33" s="24"/>
+    </row>
+    <row r="34" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>9</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C34" s="12">
         <v>2000</v>
       </c>
-      <c r="D34" s="7"/>
-    </row>
-    <row r="35" spans="1:5" ht="19.95" customHeight="1">
+      <c r="D34" s="21"/>
+      <c r="E34" s="24"/>
+    </row>
+    <row r="35" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>10</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C35" s="12">
         <v>2000</v>
       </c>
-      <c r="D35" s="7"/>
-    </row>
-    <row r="36" spans="1:5" ht="19.95" customHeight="1">
+      <c r="D35" s="21"/>
+      <c r="E35" s="24"/>
+    </row>
+    <row r="36" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>11</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C36" s="12">
         <v>5000</v>
       </c>
-      <c r="D36" s="7"/>
-    </row>
-    <row r="37" spans="1:5" ht="19.95" customHeight="1">
+      <c r="D36" s="21"/>
+      <c r="E36" s="24"/>
+    </row>
+    <row r="37" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>12</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C37" s="12">
         <v>5000</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="19.95" customHeight="1">
+      <c r="E37" s="24"/>
+    </row>
+    <row r="38" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>13</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C38" s="12">
         <v>2000</v>
       </c>
-      <c r="D38" s="7"/>
-    </row>
-    <row r="39" spans="1:5" ht="19.95" customHeight="1">
+      <c r="D38" s="21"/>
+      <c r="E38" s="24"/>
+    </row>
+    <row r="39" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>14</v>
       </c>
       <c r="B39" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="12">
         <v>2000</v>
       </c>
-      <c r="D39" s="7"/>
-    </row>
-    <row r="40" spans="1:5" ht="19.95" customHeight="1">
+      <c r="D39" s="21"/>
+      <c r="E39" s="24"/>
+    </row>
+    <row r="40" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>15</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="12">
         <v>2000</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="21" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="19.95" customHeight="1">
-      <c r="A41" s="18" t="s">
+      <c r="E40" s="24"/>
+    </row>
+    <row r="41" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="7"/>
-    </row>
-    <row r="42" spans="1:5" ht="19.95" customHeight="1">
+      <c r="B41" s="19"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="24"/>
+    </row>
+    <row r="42" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>1</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="13">
+      <c r="C42" s="12">
         <v>0</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="19.95" customHeight="1">
+      <c r="E42" s="24"/>
+    </row>
+    <row r="43" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>2</v>
       </c>
       <c r="B43" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="13">
+      <c r="C43" s="12">
         <v>0</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="19.95" customHeight="1">
+      <c r="E43" s="24"/>
+    </row>
+    <row r="44" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>3</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="13">
+      <c r="C44" s="12">
         <v>0</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="19.95" customHeight="1">
+      <c r="E44" s="24"/>
+    </row>
+    <row r="45" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>4</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="12">
         <v>9000</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="21" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="19.95" customHeight="1">
+      <c r="E45" s="24"/>
+    </row>
+    <row r="46" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>5</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C46" s="13">
+      <c r="C46" s="12">
         <v>6000</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" s="3" customFormat="1" ht="19.95" customHeight="1">
+      <c r="E46" s="24"/>
+    </row>
+    <row r="47" spans="1:5" s="3" customFormat="1" ht="19.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="14">
+      <c r="C47" s="13">
         <f>SUM(C3:C46)</f>
-        <v>202100</v>
-      </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="11"/>
+        <v>188600</v>
+      </c>
+      <c r="D47" s="22"/>
+      <c r="E47" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="7">
